--- a/tdl/tdl.xlsx
+++ b/tdl/tdl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>{{name}}（姓名）{{date}} TDL</t>
   </si>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>如未完成原因分析</t>
     </r>
     <r>
@@ -47,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>每周</t>
     </r>
     <r>
@@ -73,6 +87,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>今日</t>
     </r>
     <r>
@@ -86,10 +107,23 @@
     </r>
   </si>
   <si>
-    <t>{{content}}</t>
+    <t>{{content1}}</t>
+  </si>
+  <si>
+    <t>{{content2}}</t>
+  </si>
+  <si>
+    <t>{{content3}}</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>明日</t>
     </r>
     <r>
@@ -102,15 +136,55 @@
       <t>的工作重点</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总结</t>
+    </r>
+  </si>
+  <si>
+    <t>1.进步的点</t>
+  </si>
+  <si>
+    <t>{{summary1}}</t>
+  </si>
+  <si>
+    <t>2.待改进的点</t>
+  </si>
+  <si>
+    <t>{{summary2}}</t>
+  </si>
+  <si>
+    <t>3.当日心得感悟</t>
+  </si>
+  <si>
+    <t>{{summary3}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="36">
@@ -208,15 +282,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,47 +303,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,50 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -328,9 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,8 +341,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,12 +445,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -403,79 +477,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,110 +661,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -729,16 +803,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -751,8 +838,97 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,82 +951,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,152 +961,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,9 +1152,6 @@
     <xf numFmtId="9" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,7 +1170,22 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,7 +1200,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E12"/>
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1425,7 +1539,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:5">
+    <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1559,7 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1460,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" ht="14.4" spans="1:5">
       <c r="A5" s="6"/>
@@ -1469,7 +1583,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="24"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" ht="14.4" spans="1:5">
       <c r="A6" s="6"/>
@@ -1478,7 +1592,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" ht="14.4" customHeight="1" spans="1:5">
       <c r="A7" s="11" t="s">
@@ -1491,63 +1605,108 @@
         <v>12</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="14.4" spans="1:5">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="14.4" spans="1:5">
       <c r="A9" s="11"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" ht="14.4" customHeight="1" spans="1:5">
-      <c r="A10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="27"/>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" ht="14.4" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="27"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" ht="14.4" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="27"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:5">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="15.15" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tdl/tdl.xlsx
+++ b/tdl/tdl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>{{name}}（姓名）{{date}} TDL</t>
   </si>
@@ -137,6 +137,15 @@
     </r>
   </si>
   <si>
+    <t>{{tomorrow1}}</t>
+  </si>
+  <si>
+    <t>{{tomorrow2}}</t>
+  </si>
+  <si>
+    <t>{{tomorrow3}}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -182,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -294,6 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -306,6 +323,14 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,22 +343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -341,6 +350,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -351,6 +367,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -358,15 +412,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,57 +435,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,31 +498,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,139 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +864,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,8 +924,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -892,17 +942,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,182 +965,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1525,7 +1534,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+      <selection activeCell="C15" sqref="C12 C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1637,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="31"/>
@@ -1647,7 +1656,9 @@
       <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="31"/>
     </row>
@@ -1656,19 +1667,21 @@
       <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="31"/>
     </row>
     <row r="13" ht="14.4" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -1676,10 +1689,10 @@
     <row r="14" ht="14.4" spans="1:5">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -1687,10 +1700,10 @@
     <row r="15" ht="15.15" spans="1:5">
       <c r="A15" s="21"/>
       <c r="B15" s="24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
